--- a/Project3/improved_data_8.xlsx
+++ b/Project3/improved_data_8.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tore/Documents/2019 høst/Computational-Physics-group/Project3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76696ABD-B844-E14E-9E21-DA479BC9D52C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1B9A50-5B39-3744-BAAC-41FAA6A15390}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="1560" windowWidth="26840" windowHeight="15940"/>
+    <workbookView xWindow="1580" yWindow="1560" windowWidth="26840" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="improved_data_8" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>STD</t>
   </si>
@@ -43,11 +43,17 @@
   <si>
     <t>Avg</t>
   </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>RMS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -881,140 +887,184 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>1.03723643E-4</v>
       </c>
       <c r="C2">
+        <f>B2^2</f>
+        <v>1.0758594117191449E-8</v>
+      </c>
+      <c r="D2">
         <v>0.19275379756835101</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>12.122573839999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>1.040246708E-4</v>
       </c>
       <c r="C3">
+        <f t="shared" ref="C3:C11" si="0">B3^2</f>
+        <v>1.0821132135048373E-8</v>
+      </c>
+      <c r="D3">
         <v>0.19284617184298999</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>11.04513219</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1.2576106700000001E-4</v>
       </c>
       <c r="C4">
+        <f t="shared" si="0"/>
+        <v>1.5815845972978492E-8</v>
+      </c>
+      <c r="D4">
         <v>0.192970050673377</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>10.890109989999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1.0259347E-4</v>
       </c>
       <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1.0525420086640901E-8</v>
+      </c>
+      <c r="D5">
         <v>0.192819716063789</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>10.89780537</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1.047414434E-4</v>
       </c>
       <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1.0970769965515405E-8</v>
+      </c>
+      <c r="D6">
         <v>0.19279917410927</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>10.904066500000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>1.0368692080000001E-4</v>
       </c>
       <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1.0750977544985474E-8</v>
+      </c>
+      <c r="D7">
         <v>0.19266098981267199</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>10.912526959999999</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>1.0362305479999999E-4</v>
       </c>
       <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1.0737737486083802E-8</v>
+      </c>
+      <c r="D8">
         <v>0.19256933863009701</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>11.47890364</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>1.02817217E-4</v>
       </c>
       <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1.057138011162509E-8</v>
+      </c>
+      <c r="D9">
         <v>0.19264095232193201</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>11.112707260000001</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>1.042084618E-4</v>
       </c>
       <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1.085940351072206E-8</v>
+      </c>
+      <c r="D10">
         <v>0.192820226028073</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>10.9001468</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>1.030384499E-4</v>
       </c>
       <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1.061692215779481E-8</v>
+      </c>
+      <c r="D11">
         <v>0.19274131073102899</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>10.916120879999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1024,28 +1074,37 @@
       </c>
       <c r="C13">
         <f>AVERAGE(C2:C11)</f>
-        <v>0.19276217277815799</v>
+        <v>1.1242818308858587E-8</v>
       </c>
       <c r="D13">
         <f>AVERAGE(D2:D11)</f>
+        <v>0.19276217277815799</v>
+      </c>
+      <c r="E13">
+        <f>AVERAGE(E2:E11)</f>
         <v>11.118009342999999</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B14">
-        <f>_xlfn.STDEV.S(B2:B11)</f>
-        <v>7.0361384311074762E-6</v>
-      </c>
-      <c r="C14">
-        <f>_xlfn.STDEV.S(C2:C11)</f>
-        <v>1.1592255057417838E-4</v>
-      </c>
       <c r="D14">
         <f>_xlfn.STDEV.S(D2:D11)</f>
+        <v>1.1592255057417838E-4</v>
+      </c>
+      <c r="E14">
+        <f>_xlfn.STDEV.S(E2:E11)</f>
         <v>0.39740536364796258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <f>SQRT(C13)</f>
+        <v>1.0603215695655063E-4</v>
       </c>
     </row>
   </sheetData>
